--- a/biology/Botanique/Larix/Larix.xlsx
+++ b/biology/Botanique/Larix/Larix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Larix est un genre de plantes de la famille des Pinaceae. Ce sont des arbres originaires des régions tempérées en altitude, de l'hémisphère nord. Les espèces sont couramment appelées « mélèzes ».
 Ces arbres atteignent facilement 20-45 mètres de haut (certains spécimens de Larix occidentalis dépassent parfois les 65 mètres). Ils sont à feuilles caduques, caractéristique assez rare chez les conifères.
@@ -512,12 +524,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On en rencontre 12 espèces et un hybride interspécifique connu :
 Larix czekanowskii Szafer
 Larix decidua Mill. — mélèze d'Europe
-Larix × eurolepis Henry[1] (Larix decidua × Larix kaempferi) — mélèze hybride[2]
+Larix × eurolepis Henry (Larix decidua × Larix kaempferi) — mélèze hybride
 Larix gmelinii (Rupr.) Rupr. — mélèze de Dahurie
 Larix gmelinii var. gmelinii
 Larix gmelinii var. japonica (Maxim. ex Regel) Pilg.
@@ -565,9 +579,11 @@
           <t>Parasitisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur l'ensemble de l'aire de répartition du genre et pour de nombreuses espèces de Mélèze, les cônes sont régulièrement parasités par des larves de mouches du genre Strobilomyia[3]. Dans les Alpes, le Mélèze d'Europe ne fait pas exception. Cependant, ses plantations en dehors de son aire d'origine semblent peu concernées[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'ensemble de l'aire de répartition du genre et pour de nombreuses espèces de Mélèze, les cônes sont régulièrement parasités par des larves de mouches du genre Strobilomyia. Dans les Alpes, le Mélèze d'Europe ne fait pas exception. Cependant, ses plantations en dehors de son aire d'origine semblent peu concernées.
 </t>
         </is>
       </c>
@@ -596,7 +612,9 @@
           <t>Hybride</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un mélèze hybride (Larix × marschlinsii) est apparu plus ou moins simultanément en Suisse et en Écosse lorsque le mélèze d'Europe (L. decidua) et le mélèze du Japon (L. kaempferi) ont été plantés ensemble.
 </t>
@@ -627,9 +645,11 @@
           <t>Usage tinctorial</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses aiguilles tombées en automne, devenues jaunes peuvent teindre la laine (lui donnant une couleur brune)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses aiguilles tombées en automne, devenues jaunes peuvent teindre la laine (lui donnant une couleur brune).
 </t>
         </is>
       </c>
